--- a/biology/Zoologie/Alucitidae/Alucitidae.xlsx
+++ b/biology/Zoologie/Alucitidae/Alucitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alucitidae sont une famille de lépidoptères (papillons) dont les ailes ont une forme tout à fait caractéristique : les ailes antérieures et postérieures sont organisées  autour de six nervures rigides, d'où irradient des cellules flexibles formant une structure d'ensemble rappelant des plumes d'oiseaux.
-Cette famille regroupe environ 9 genres et 216 espèces décrites[1]. On les trouve surtout dans les régions tempérées à subtropicales, mais jamais en climat tropical[réf. souhaitée]. Même au sein de leurs aires de répartition, leur diversité est souvent faible ; en Grande-Bretagne, par exemple, on n'en trouve qu'une seule espèce : Alucita hexadactyla. On trouve d'autres espèces d'Alucitidae en Europe continentale, principalement du genre Alucita.
+Cette famille regroupe environ 9 genres et 216 espèces décrites. On les trouve surtout dans les régions tempérées à subtropicales, mais jamais en climat tropical[réf. souhaitée]. Même au sein de leurs aires de répartition, leur diversité est souvent faible ; en Grande-Bretagne, par exemple, on n'en trouve qu'une seule espèce : Alucita hexadactyla. On trouve d'autres espèces d'Alucitidae en Europe continentale, principalement du genre Alucita.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La systématique de cette famille est débattue. Les Alucitidae sont généralement associés aux Tineodidae pour former la super-famille des Alucitoidea, mais de récentes études en phylogénétique moléculaire suggèrent que la famille des Tineodidae est paraphylétique, et qu'elle devrait être synonymisé avec Alucitidae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique de cette famille est débattue. Les Alucitidae sont généralement associés aux Tineodidae pour former la super-famille des Alucitoidea, mais de récentes études en phylogénétique moléculaire suggèrent que la famille des Tineodidae est paraphylétique, et qu'elle devrait être synonymisé avec Alucitidae.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alinguata
 Alucita Linnaeus, 1758
